--- a/biology/Histoire de la zoologie et de la botanique/William_Spence/William_Spence.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Spence/William_Spence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Spence est un entomologiste britannique, né en 1783 à Hull et mort le 6 janvier 1860.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à la fondation de la Société entomologique de Londres en 1833 et en assure la présidence en 1847. Il est fait membre de la Royal Society en 1834.
 Il signe, avec son ami William Kirby (1759-1850), Introduction to Entomology (1815–1826).
